--- a/data/pca/factorExposure/factorExposure_2014-08-25.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-08-25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +735,57 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>0.003534228345682114</v>
+        <v>0.01861625885013739</v>
       </c>
       <c r="C2">
-        <v>-0.1124488880461821</v>
+        <v>-0.06670072472111074</v>
       </c>
       <c r="D2">
-        <v>-0.0302518892453633</v>
+        <v>0.03151694185031961</v>
       </c>
       <c r="E2">
-        <v>0.2333677769003044</v>
+        <v>0.008134917075468588</v>
       </c>
       <c r="F2">
-        <v>-0.0290781960732177</v>
+        <v>0.1217649214650131</v>
       </c>
       <c r="G2">
-        <v>-0.04052555905863695</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.1109498554206962</v>
+      </c>
+      <c r="H2">
+        <v>-0.0140088020707436</v>
+      </c>
+      <c r="I2">
+        <v>0.07953112376529102</v>
+      </c>
+      <c r="J2">
+        <v>-0.09201674724430473</v>
+      </c>
+      <c r="K2">
+        <v>-0.03609116902233977</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +805,57 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>0.01525916078932742</v>
+        <v>0.01933397098982683</v>
       </c>
       <c r="C4">
-        <v>-0.1645387205714751</v>
+        <v>-0.1429425777508625</v>
       </c>
       <c r="D4">
-        <v>-0.03575083988461607</v>
+        <v>0.06472289944135917</v>
       </c>
       <c r="E4">
-        <v>0.04579867008902858</v>
+        <v>-0.03750294667660979</v>
       </c>
       <c r="F4">
-        <v>0.06484469034884226</v>
+        <v>0.01773074126557495</v>
       </c>
       <c r="G4">
-        <v>0.0289485236003619</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.06369038613032178</v>
+      </c>
+      <c r="H4">
+        <v>0.02949255348042655</v>
+      </c>
+      <c r="I4">
+        <v>0.105345817548633</v>
+      </c>
+      <c r="J4">
+        <v>0.006794885261821106</v>
+      </c>
+      <c r="K4">
+        <v>0.009849930608797035</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +875,407 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>0.01876258636396258</v>
+        <v>0.03848250231429713</v>
       </c>
       <c r="C6">
-        <v>-0.07742790529465962</v>
+        <v>-0.08509229729067062</v>
       </c>
       <c r="D6">
-        <v>-0.05591643393227216</v>
+        <v>0.02670988026398149</v>
       </c>
       <c r="E6">
-        <v>0.05527908169772446</v>
+        <v>0.001237192892370707</v>
       </c>
       <c r="F6">
-        <v>0.00859459469411899</v>
+        <v>0.06066424163410695</v>
       </c>
       <c r="G6">
-        <v>0.04846484279393693</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.01750446041863373</v>
+      </c>
+      <c r="H6">
+        <v>0.0551051979617196</v>
+      </c>
+      <c r="I6">
+        <v>0.007978636166593188</v>
+      </c>
+      <c r="J6">
+        <v>0.05200374313243136</v>
+      </c>
+      <c r="K6">
+        <v>-0.04103666837530886</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>0.001731814917442299</v>
+        <v>0.01888966657726293</v>
       </c>
       <c r="C7">
-        <v>-0.0635868781865687</v>
+        <v>-0.07031918120012555</v>
       </c>
       <c r="D7">
-        <v>-0.03703515899478237</v>
+        <v>0.03175188972130836</v>
       </c>
       <c r="E7">
-        <v>0.006579181699547545</v>
+        <v>-0.02678826636961902</v>
       </c>
       <c r="F7">
-        <v>0.02712668566164382</v>
+        <v>0.00302791961531523</v>
       </c>
       <c r="G7">
-        <v>0.03572279812258162</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.0124182065575365</v>
+      </c>
+      <c r="H7">
+        <v>0.03038684725015965</v>
+      </c>
+      <c r="I7">
+        <v>0.0956335077645465</v>
+      </c>
+      <c r="J7">
+        <v>-0.03796180189188261</v>
+      </c>
+      <c r="K7">
+        <v>-0.02657708383831837</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.01366681483637176</v>
+        <v>0.001166658600081951</v>
       </c>
       <c r="C8">
-        <v>-0.07083710352417413</v>
+        <v>-0.06105924280219317</v>
       </c>
       <c r="D8">
-        <v>-0.04484033307617406</v>
+        <v>0.04803822940457595</v>
       </c>
       <c r="E8">
-        <v>0.05828590201203385</v>
+        <v>-0.03367178062448364</v>
       </c>
       <c r="F8">
-        <v>0.01251787154528756</v>
+        <v>0.06242641902286773</v>
       </c>
       <c r="G8">
-        <v>-0.008493067675444133</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.01270664671050722</v>
+      </c>
+      <c r="H8">
+        <v>-0.01267046527827327</v>
+      </c>
+      <c r="I8">
+        <v>0.04539759697862392</v>
+      </c>
+      <c r="J8">
+        <v>0.03184880508208322</v>
+      </c>
+      <c r="K8">
+        <v>0.005404550568846964</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>0.007923144565742508</v>
+        <v>0.0140913998115376</v>
       </c>
       <c r="C9">
-        <v>-0.1171109028932495</v>
+        <v>-0.1011003963515418</v>
       </c>
       <c r="D9">
-        <v>-0.04910550299861181</v>
+        <v>0.0400305926226928</v>
       </c>
       <c r="E9">
-        <v>0.009815522366928502</v>
+        <v>-0.005522406736341798</v>
       </c>
       <c r="F9">
-        <v>0.006147832329780452</v>
+        <v>0.009950497727764485</v>
       </c>
       <c r="G9">
-        <v>0.03959166033315716</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.04504189398796747</v>
+      </c>
+      <c r="H9">
+        <v>0.01524362098011843</v>
+      </c>
+      <c r="I9">
+        <v>0.1127120543751378</v>
+      </c>
+      <c r="J9">
+        <v>-0.006500728763910929</v>
+      </c>
+      <c r="K9">
+        <v>-0.01701700953749877</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>0.273324976214379</v>
+        <v>0.2478679519713504</v>
       </c>
       <c r="C10">
-        <v>0.06614275003821223</v>
+        <v>0.09581485659225991</v>
       </c>
       <c r="D10">
-        <v>0.01856949976970248</v>
+        <v>-0.002573394912480174</v>
       </c>
       <c r="E10">
-        <v>-0.02778853538356218</v>
+        <v>-0.02191969127529111</v>
       </c>
       <c r="F10">
-        <v>0.01040398949755773</v>
+        <v>0.03326100646018006</v>
       </c>
       <c r="G10">
-        <v>0.004688023993311949</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.05028805724434054</v>
+      </c>
+      <c r="H10">
+        <v>0.02144244367612651</v>
+      </c>
+      <c r="I10">
+        <v>0.03242320321043154</v>
+      </c>
+      <c r="J10">
+        <v>0.01275882615235588</v>
+      </c>
+      <c r="K10">
+        <v>0.1563236148279694</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>0.003323077874864925</v>
+        <v>0.01721622691556073</v>
       </c>
       <c r="C11">
-        <v>-0.06795988667726255</v>
+        <v>-0.07990629649721771</v>
       </c>
       <c r="D11">
-        <v>-0.03157366662252145</v>
+        <v>0.03787467820792314</v>
       </c>
       <c r="E11">
-        <v>-0.02697434760819243</v>
+        <v>0.0009708419307796476</v>
       </c>
       <c r="F11">
-        <v>0.00591059601250001</v>
+        <v>-0.01207268663889704</v>
       </c>
       <c r="G11">
-        <v>0.03978019487820952</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.002403572718846967</v>
+      </c>
+      <c r="H11">
+        <v>0.009098734511686708</v>
+      </c>
+      <c r="I11">
+        <v>0.03658068155931465</v>
+      </c>
+      <c r="J11">
+        <v>0.0004082921023258805</v>
+      </c>
+      <c r="K11">
+        <v>-0.02927039863094588</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>0.001006458560873834</v>
+        <v>0.0160501441851625</v>
       </c>
       <c r="C12">
-        <v>-0.04423818247692381</v>
+        <v>-0.05243474882007392</v>
       </c>
       <c r="D12">
-        <v>-0.03690737668508487</v>
+        <v>0.02556805982670053</v>
       </c>
       <c r="E12">
-        <v>-0.01783172752931395</v>
+        <v>0.01666700684094223</v>
       </c>
       <c r="F12">
-        <v>-0.02280314966567542</v>
+        <v>0.004148317304617405</v>
       </c>
       <c r="G12">
-        <v>0.04498795982566796</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.005449094149435963</v>
+      </c>
+      <c r="H12">
+        <v>0.02497073111226124</v>
+      </c>
+      <c r="I12">
+        <v>0.03229822551344446</v>
+      </c>
+      <c r="J12">
+        <v>0.01027112879821182</v>
+      </c>
+      <c r="K12">
+        <v>-0.01615584964671787</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>0.003229461882821721</v>
+        <v>0.003676577747177087</v>
       </c>
       <c r="C13">
-        <v>-0.1190715832470437</v>
+        <v>-0.112080232566464</v>
       </c>
       <c r="D13">
-        <v>-0.08194404935234054</v>
+        <v>0.04103229429349084</v>
       </c>
       <c r="E13">
-        <v>0.05564023896279438</v>
+        <v>0.05297652739647857</v>
       </c>
       <c r="F13">
-        <v>-0.06397814844092076</v>
+        <v>0.1441486275475109</v>
       </c>
       <c r="G13">
-        <v>0.1385732219376844</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.0537150699592926</v>
+      </c>
+      <c r="H13">
+        <v>0.1299916472707935</v>
+      </c>
+      <c r="I13">
+        <v>0.1367000600858067</v>
+      </c>
+      <c r="J13">
+        <v>-0.1722118690444737</v>
+      </c>
+      <c r="K13">
+        <v>0.1291895260468184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>0.006395679927149268</v>
+        <v>0.0208330942974628</v>
       </c>
       <c r="C14">
-        <v>-0.07271466891031579</v>
+        <v>-0.07335885899156942</v>
       </c>
       <c r="D14">
-        <v>-0.04315425735924998</v>
+        <v>0.04828424417705957</v>
       </c>
       <c r="E14">
-        <v>0.02577557098132514</v>
+        <v>0.01517777114256573</v>
       </c>
       <c r="F14">
-        <v>-0.03213134467695614</v>
+        <v>0.0470578229400568</v>
       </c>
       <c r="G14">
-        <v>0.08099270529550308</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.03166300068061789</v>
+      </c>
+      <c r="H14">
+        <v>0.1040169532702102</v>
+      </c>
+      <c r="I14">
+        <v>0.185647434382006</v>
+      </c>
+      <c r="J14">
+        <v>-0.005237072467692983</v>
+      </c>
+      <c r="K14">
+        <v>-0.02105691729723791</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.002241307413912501</v>
+        <v>0.002618486807171903</v>
       </c>
       <c r="C15">
-        <v>-0.09145882902818249</v>
+        <v>-0.08072232563322992</v>
       </c>
       <c r="D15">
-        <v>-0.04574624754170007</v>
+        <v>0.03483070944424257</v>
       </c>
       <c r="E15">
-        <v>0.02824204919972559</v>
+        <v>-0.02465732813443666</v>
       </c>
       <c r="F15">
-        <v>-0.0006170819531715573</v>
+        <v>0.02267494559384663</v>
       </c>
       <c r="G15">
-        <v>0.04128450519685101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0.004847686185658825</v>
+      </c>
+      <c r="H15">
+        <v>0.03224681482137291</v>
+      </c>
+      <c r="I15">
+        <v>0.09189198343496351</v>
+      </c>
+      <c r="J15">
+        <v>-0.0003019360587460769</v>
+      </c>
+      <c r="K15">
+        <v>-0.03151339911601928</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>0.007185802006363452</v>
+        <v>0.01608287116058059</v>
       </c>
       <c r="C16">
-        <v>-0.05817886230449745</v>
+        <v>-0.06031430152685786</v>
       </c>
       <c r="D16">
-        <v>-0.02901108151440375</v>
+        <v>0.02690172047805251</v>
       </c>
       <c r="E16">
-        <v>-0.01645578548783111</v>
+        <v>0.002427322949979395</v>
       </c>
       <c r="F16">
-        <v>-0.007785575913650405</v>
+        <v>-0.007221766087225706</v>
       </c>
       <c r="G16">
-        <v>0.02570993881149422</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.002543178957903463</v>
+      </c>
+      <c r="H16">
+        <v>0.00811454356564829</v>
+      </c>
+      <c r="I16">
+        <v>0.02510287552423953</v>
+      </c>
+      <c r="J16">
+        <v>0.0004015793796678046</v>
+      </c>
+      <c r="K16">
+        <v>-0.019976307287553</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1295,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1330,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1365,267 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>0.008710570645018336</v>
+        <v>0.01584091595976538</v>
       </c>
       <c r="C20">
-        <v>-0.08874646767263651</v>
+        <v>-0.08289742964002199</v>
       </c>
       <c r="D20">
-        <v>-0.04166144815869312</v>
+        <v>0.02652876001058949</v>
       </c>
       <c r="E20">
-        <v>-0.03701252645717895</v>
+        <v>-0.02774096127422926</v>
       </c>
       <c r="F20">
-        <v>-0.003370611049969451</v>
+        <v>-0.006828592829387599</v>
       </c>
       <c r="G20">
-        <v>0.09472429977948509</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.01496543962526011</v>
+      </c>
+      <c r="H20">
+        <v>0.04192445272514546</v>
+      </c>
+      <c r="I20">
+        <v>0.07072615934940342</v>
+      </c>
+      <c r="J20">
+        <v>0.01032223927832113</v>
+      </c>
+      <c r="K20">
+        <v>-0.01532785871465146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.003093489141892978</v>
+        <v>0.01354117334072212</v>
       </c>
       <c r="C21">
-        <v>-0.08834904250283183</v>
+        <v>-0.06984901155232454</v>
       </c>
       <c r="D21">
-        <v>0.01157712833679053</v>
+        <v>0.0198158990333959</v>
       </c>
       <c r="E21">
-        <v>0.03876510995430876</v>
+        <v>0.0408326544935432</v>
       </c>
       <c r="F21">
-        <v>-0.07102535935441001</v>
+        <v>0.08859570262233807</v>
       </c>
       <c r="G21">
-        <v>0.02511114100822925</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.03375704138043766</v>
+      </c>
+      <c r="H21">
+        <v>0.02929300662099176</v>
+      </c>
+      <c r="I21">
+        <v>0.1364240424293427</v>
+      </c>
+      <c r="J21">
+        <v>-0.04048534356848378</v>
+      </c>
+      <c r="K21">
+        <v>0.000649591397664168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>0.009372429047062002</v>
+        <v>0.006713496936138507</v>
       </c>
       <c r="C22">
-        <v>-0.2412742926550581</v>
+        <v>-0.1726040599476316</v>
       </c>
       <c r="D22">
-        <v>0.07793938653114195</v>
+        <v>0.01956071232498603</v>
       </c>
       <c r="E22">
-        <v>0.3091120574599073</v>
+        <v>-0.2259099633594972</v>
       </c>
       <c r="F22">
-        <v>0.3277048921004685</v>
+        <v>0.2686193205189212</v>
       </c>
       <c r="G22">
-        <v>-0.02619326325122004</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>0.3933107021962097</v>
+      </c>
+      <c r="H22">
+        <v>-0.00412439319425557</v>
+      </c>
+      <c r="I22">
+        <v>-0.3304458177288694</v>
+      </c>
+      <c r="J22">
+        <v>-0.0549673905407759</v>
+      </c>
+      <c r="K22">
+        <v>-0.01502996859069508</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>0.01029328227361529</v>
+        <v>0.01187784938959771</v>
       </c>
       <c r="C23">
-        <v>-0.2454233878150577</v>
+        <v>-0.1760185915122484</v>
       </c>
       <c r="D23">
-        <v>0.08248901095920121</v>
+        <v>0.01921143003597967</v>
       </c>
       <c r="E23">
-        <v>0.3040341231364808</v>
+        <v>-0.2164286698504126</v>
       </c>
       <c r="F23">
-        <v>0.3225884097281324</v>
+        <v>0.2606102814066216</v>
       </c>
       <c r="G23">
-        <v>-0.02672089095058915</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>0.3850179506723845</v>
+      </c>
+      <c r="H23">
+        <v>-0.002676661771679276</v>
+      </c>
+      <c r="I23">
+        <v>-0.3066122390016357</v>
+      </c>
+      <c r="J23">
+        <v>-0.05108007139366596</v>
+      </c>
+      <c r="K23">
+        <v>-0.0202889381192758</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>0.001491987204134797</v>
+        <v>0.0166847072934333</v>
       </c>
       <c r="C24">
-        <v>-0.05549753893225737</v>
+        <v>-0.0630883422015963</v>
       </c>
       <c r="D24">
-        <v>-0.04287731588103373</v>
+        <v>0.03987370963593415</v>
       </c>
       <c r="E24">
-        <v>-0.02203188278285662</v>
+        <v>-0.0002259421580649878</v>
       </c>
       <c r="F24">
-        <v>3.548150231566626e-06</v>
+        <v>-0.00742939325854667</v>
       </c>
       <c r="G24">
-        <v>0.04981509179084171</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.002608776203369285</v>
+      </c>
+      <c r="H24">
+        <v>0.02377835086385995</v>
+      </c>
+      <c r="I24">
+        <v>0.0440515575261243</v>
+      </c>
+      <c r="J24">
+        <v>-0.004226935765701764</v>
+      </c>
+      <c r="K24">
+        <v>-0.02666935373711856</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>0.002611679730198564</v>
+        <v>0.02083540511220008</v>
       </c>
       <c r="C25">
-        <v>-0.06454642617991463</v>
+        <v>-0.06599498404060064</v>
       </c>
       <c r="D25">
-        <v>-0.02306561421154484</v>
+        <v>0.03257952052009927</v>
       </c>
       <c r="E25">
-        <v>-0.02462177617041781</v>
+        <v>0.0002164785159669943</v>
       </c>
       <c r="F25">
-        <v>-0.004166890505302493</v>
+        <v>-0.007292842285014894</v>
       </c>
       <c r="G25">
-        <v>0.04761389295604872</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.006603756928522228</v>
+      </c>
+      <c r="H25">
+        <v>0.01639596989164499</v>
+      </c>
+      <c r="I25">
+        <v>0.04052888473083679</v>
+      </c>
+      <c r="J25">
+        <v>-0.00450973889136827</v>
+      </c>
+      <c r="K25">
+        <v>-0.01264158155386001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>0.004356346024221994</v>
+        <v>0.02302119199664927</v>
       </c>
       <c r="C26">
-        <v>-0.05090824991871618</v>
+        <v>-0.05547057467884224</v>
       </c>
       <c r="D26">
-        <v>-0.07772692178030093</v>
+        <v>0.06269110834430199</v>
       </c>
       <c r="E26">
-        <v>-0.01140079006352637</v>
+        <v>0.000557831397852935</v>
       </c>
       <c r="F26">
-        <v>-0.03628271263324525</v>
+        <v>-0.01196330926911833</v>
       </c>
       <c r="G26">
-        <v>0.06161761170205689</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>7.182426331008657e-05</v>
+      </c>
+      <c r="H26">
+        <v>0.0009180771358635051</v>
+      </c>
+      <c r="I26">
+        <v>0.1168655796548692</v>
+      </c>
+      <c r="J26">
+        <v>-0.03191786418075657</v>
+      </c>
+      <c r="K26">
+        <v>-0.05939158963551953</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1645,337 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>0.3675929940681141</v>
+        <v>0.3103458597113243</v>
       </c>
       <c r="C28">
-        <v>0.07873181087850539</v>
+        <v>0.1143542180625753</v>
       </c>
       <c r="D28">
-        <v>0.01463672564230366</v>
+        <v>-0.03211805239411816</v>
       </c>
       <c r="E28">
-        <v>-0.04125356098026651</v>
+        <v>-0.02320682913548985</v>
       </c>
       <c r="F28">
-        <v>-0.05660355993576369</v>
+        <v>0.05222569851133795</v>
       </c>
       <c r="G28">
-        <v>-0.09031204492040071</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.01993659221522774</v>
+      </c>
+      <c r="H28">
+        <v>-0.1086334649610618</v>
+      </c>
+      <c r="I28">
+        <v>0.06915099676353757</v>
+      </c>
+      <c r="J28">
+        <v>-0.0311096414928987</v>
+      </c>
+      <c r="K28">
+        <v>0.2094027349177307</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>0.006446045475770999</v>
+        <v>0.01721975783073329</v>
       </c>
       <c r="C29">
-        <v>-0.08082099256060753</v>
+        <v>-0.08383026462502047</v>
       </c>
       <c r="D29">
-        <v>-0.04943337959360136</v>
+        <v>0.05003483045736277</v>
       </c>
       <c r="E29">
-        <v>0.006949263871292681</v>
+        <v>0.02592587008592432</v>
       </c>
       <c r="F29">
-        <v>-0.03673185123236705</v>
+        <v>0.04301573062393886</v>
       </c>
       <c r="G29">
-        <v>0.1193713810165366</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.02446304552314556</v>
+      </c>
+      <c r="H29">
+        <v>0.1555118663599368</v>
+      </c>
+      <c r="I29">
+        <v>0.2638709985074242</v>
+      </c>
+      <c r="J29">
+        <v>0.0006483129589872298</v>
+      </c>
+      <c r="K29">
+        <v>-0.008693307982543634</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>0.01799330862869955</v>
+        <v>0.0339281700302207</v>
       </c>
       <c r="C30">
-        <v>-0.1686776409829239</v>
+        <v>-0.143134528325622</v>
       </c>
       <c r="D30">
-        <v>-0.06948734637533847</v>
+        <v>0.05516915833270963</v>
       </c>
       <c r="E30">
-        <v>0.02250273155099084</v>
+        <v>-0.04067855700365523</v>
       </c>
       <c r="F30">
-        <v>0.05137102040937528</v>
+        <v>0.03872312000955477</v>
       </c>
       <c r="G30">
-        <v>0.02422538403651049</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.02494853500903633</v>
+      </c>
+      <c r="H30">
+        <v>0.01527358681686943</v>
+      </c>
+      <c r="I30">
+        <v>0.03295723422139708</v>
+      </c>
+      <c r="J30">
+        <v>0.0215683958494012</v>
+      </c>
+      <c r="K30">
+        <v>-0.04540808908671094</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>-0.004315760395664407</v>
+        <v>0.0152282131962136</v>
       </c>
       <c r="C31">
-        <v>-0.05346482487668631</v>
+        <v>-0.07838696196895234</v>
       </c>
       <c r="D31">
-        <v>-0.03572769767204251</v>
+        <v>0.04172132618251906</v>
       </c>
       <c r="E31">
-        <v>-0.01877313761463418</v>
+        <v>0.0002972055683425144</v>
       </c>
       <c r="F31">
-        <v>-0.01607068030446583</v>
+        <v>0.003251006532024633</v>
       </c>
       <c r="G31">
-        <v>0.01445200105497249</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.005847059816786285</v>
+      </c>
+      <c r="H31">
+        <v>-0.0214990600560948</v>
+      </c>
+      <c r="I31">
+        <v>0.04358561298781859</v>
+      </c>
+      <c r="J31">
+        <v>0.008341562661455418</v>
+      </c>
+      <c r="K31">
+        <v>-0.008920314145079034</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>0.01660208760664377</v>
+        <v>0.02217492278490769</v>
       </c>
       <c r="C32">
-        <v>-0.07357652429963579</v>
+        <v>-0.04984967988265267</v>
       </c>
       <c r="D32">
-        <v>-0.004321522077003236</v>
+        <v>0.02309547791008937</v>
       </c>
       <c r="E32">
-        <v>0.1452813218337738</v>
+        <v>0.01761418026023536</v>
       </c>
       <c r="F32">
-        <v>0.00682296157870532</v>
+        <v>0.1013006680368838</v>
       </c>
       <c r="G32">
-        <v>0.09368199971913235</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.05250013835470067</v>
+      </c>
+      <c r="H32">
+        <v>0.08705797156702606</v>
+      </c>
+      <c r="I32">
+        <v>0.1601271150830669</v>
+      </c>
+      <c r="J32">
+        <v>-0.06185970871895823</v>
+      </c>
+      <c r="K32">
+        <v>0.2521985285806255</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>0.007730796565719697</v>
+        <v>0.01760965510362796</v>
       </c>
       <c r="C33">
-        <v>-0.09007025870359245</v>
+        <v>-0.1019092567781201</v>
       </c>
       <c r="D33">
-        <v>-0.06447274414732525</v>
+        <v>0.05220454079347311</v>
       </c>
       <c r="E33">
-        <v>0.006578054213439591</v>
+        <v>-0.01758877792564512</v>
       </c>
       <c r="F33">
-        <v>-0.01347741510150316</v>
+        <v>0.01385068744909554</v>
       </c>
       <c r="G33">
-        <v>0.04264270422657917</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.01007674725442358</v>
+      </c>
+      <c r="H33">
+        <v>0.02880230645712687</v>
+      </c>
+      <c r="I33">
+        <v>0.05904879277038598</v>
+      </c>
+      <c r="J33">
+        <v>-0.01121637682006718</v>
+      </c>
+      <c r="K33">
+        <v>0.01971184590696021</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>0.002803726766642227</v>
+        <v>0.01824382992926351</v>
       </c>
       <c r="C34">
-        <v>-0.05060365726976324</v>
+        <v>-0.04936976702430234</v>
       </c>
       <c r="D34">
-        <v>-0.02454218508767459</v>
+        <v>0.02129941094715651</v>
       </c>
       <c r="E34">
-        <v>-0.005693962138116219</v>
+        <v>0.002903275647320786</v>
       </c>
       <c r="F34">
-        <v>-0.02288978878537703</v>
+        <v>0.0001303657044474637</v>
       </c>
       <c r="G34">
-        <v>0.0413595808302237</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.009144907108686061</v>
+      </c>
+      <c r="H34">
+        <v>0.01988519461472871</v>
+      </c>
+      <c r="I34">
+        <v>0.002781086386531296</v>
+      </c>
+      <c r="J34">
+        <v>0.01607785447022376</v>
+      </c>
+      <c r="K34">
+        <v>-0.01048958564557796</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>0.001894605089884061</v>
+        <v>0.01063423051929444</v>
       </c>
       <c r="C35">
-        <v>-0.02802293525402269</v>
+        <v>-0.04523086922903684</v>
       </c>
       <c r="D35">
-        <v>-0.008290530280393419</v>
+        <v>0.02160966272484269</v>
       </c>
       <c r="E35">
-        <v>0.002621581832386003</v>
+        <v>-0.002449091301771071</v>
       </c>
       <c r="F35">
-        <v>-0.009632753160686257</v>
+        <v>0.02165026412218247</v>
       </c>
       <c r="G35">
-        <v>0.04066948921288991</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>-0.01151624056730676</v>
+      </c>
+      <c r="H35">
+        <v>0.0664935726969426</v>
+      </c>
+      <c r="I35">
+        <v>0.1419995335400602</v>
+      </c>
+      <c r="J35">
+        <v>0.02573582613483149</v>
+      </c>
+      <c r="K35">
+        <v>0.01485552159857694</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>0.006656624803863061</v>
+        <v>0.01427158805951175</v>
       </c>
       <c r="C36">
-        <v>-0.05287144223783539</v>
+        <v>-0.04568312253081894</v>
       </c>
       <c r="D36">
-        <v>-0.05993354522976829</v>
+        <v>0.04417537624311069</v>
       </c>
       <c r="E36">
-        <v>-0.01336800496251172</v>
+        <v>-0.01079412367950166</v>
       </c>
       <c r="F36">
-        <v>-0.01604513610289982</v>
+        <v>0.01252721196545087</v>
       </c>
       <c r="G36">
-        <v>0.04077064208215068</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.005160560234867336</v>
+      </c>
+      <c r="H36">
+        <v>0.002280368836207834</v>
+      </c>
+      <c r="I36">
+        <v>0.08660873727207469</v>
+      </c>
+      <c r="J36">
+        <v>-0.02454035542996667</v>
+      </c>
+      <c r="K36">
+        <v>-0.01751595635660394</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +1995,162 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>0.02718580203570494</v>
+        <v>0.009743845915454503</v>
       </c>
       <c r="C38">
-        <v>-0.0546243212336445</v>
+        <v>-0.05885730929162153</v>
       </c>
       <c r="D38">
-        <v>-0.04242949542610386</v>
+        <v>0.03869723656950882</v>
       </c>
       <c r="E38">
-        <v>-0.0193950247342092</v>
+        <v>-0.05145809183263798</v>
       </c>
       <c r="F38">
-        <v>-0.01532195268835233</v>
+        <v>0.01365963211520693</v>
       </c>
       <c r="G38">
-        <v>0.03921807815524958</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.01232029309990766</v>
+      </c>
+      <c r="H38">
+        <v>0.02135653824887526</v>
+      </c>
+      <c r="I38">
+        <v>0.07334697923931392</v>
+      </c>
+      <c r="J38">
+        <v>-0.01759201443498877</v>
+      </c>
+      <c r="K38">
+        <v>0.06553331267932352</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.001942419928599176</v>
+        <v>0.02455017481984833</v>
       </c>
       <c r="C39">
-        <v>-0.12390340256794</v>
+        <v>-0.1317509251365209</v>
       </c>
       <c r="D39">
-        <v>-0.05826603985747489</v>
+        <v>0.05965266726166742</v>
       </c>
       <c r="E39">
-        <v>-0.01237038165868892</v>
+        <v>-0.0003871419380613259</v>
       </c>
       <c r="F39">
-        <v>-0.01229244899436352</v>
+        <v>0.009560785098930916</v>
       </c>
       <c r="G39">
-        <v>0.07055333041080974</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.02885307204051425</v>
+      </c>
+      <c r="H39">
+        <v>0.04222433675424951</v>
+      </c>
+      <c r="I39">
+        <v>0.03226561637314626</v>
+      </c>
+      <c r="J39">
+        <v>0.02368568346947742</v>
+      </c>
+      <c r="K39">
+        <v>-0.09197756436679044</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>0.003060652963924753</v>
+        <v>0.01470067311983585</v>
       </c>
       <c r="C40">
-        <v>-0.02998063009394353</v>
+        <v>-0.05679579992628663</v>
       </c>
       <c r="D40">
-        <v>-0.02724233379724265</v>
+        <v>0.04374808341023576</v>
       </c>
       <c r="E40">
-        <v>0.1178613779591521</v>
+        <v>0.009885886685906601</v>
       </c>
       <c r="F40">
-        <v>0.06704448577532672</v>
+        <v>0.04088449878210116</v>
       </c>
       <c r="G40">
-        <v>0.1053896891323117</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.00506127975659476</v>
+      </c>
+      <c r="H40">
+        <v>0.1540017296898975</v>
+      </c>
+      <c r="I40">
+        <v>0.01979343219134558</v>
+      </c>
+      <c r="J40">
+        <v>-0.02077229054627167</v>
+      </c>
+      <c r="K40">
+        <v>-0.03643172847390472</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>0.01129866677996458</v>
+        <v>0.02218198190482776</v>
       </c>
       <c r="C41">
-        <v>-0.02379567611229824</v>
+        <v>-0.04666408109836059</v>
       </c>
       <c r="D41">
-        <v>-0.00420490707896427</v>
+        <v>0.01486071447995888</v>
       </c>
       <c r="E41">
-        <v>0.002447662221861476</v>
+        <v>0.007164720570880588</v>
       </c>
       <c r="F41">
-        <v>-0.01043514962042483</v>
+        <v>-0.01085565739864623</v>
       </c>
       <c r="G41">
-        <v>-0.040803714676402</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.009570911163964527</v>
+      </c>
+      <c r="H41">
+        <v>-0.005634188436941364</v>
+      </c>
+      <c r="I41">
+        <v>0.02604450632915829</v>
+      </c>
+      <c r="J41">
+        <v>-0.01332931507276435</v>
+      </c>
+      <c r="K41">
+        <v>0.02947060341505388</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2170,92 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>0.004941686642948606</v>
+        <v>0.01925274748803953</v>
       </c>
       <c r="C43">
-        <v>-0.02123278113656659</v>
+        <v>-0.04298300491714734</v>
       </c>
       <c r="D43">
-        <v>-0.02184921050806225</v>
+        <v>0.02882191494139432</v>
       </c>
       <c r="E43">
-        <v>-0.003222112568813252</v>
+        <v>-0.008255531187503339</v>
       </c>
       <c r="F43">
-        <v>0.001924950313700282</v>
+        <v>-0.009787112345833364</v>
       </c>
       <c r="G43">
-        <v>-0.004343590312316911</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.007785864739304565</v>
+      </c>
+      <c r="H43">
+        <v>0.006676902513122944</v>
+      </c>
+      <c r="I43">
+        <v>0.03571968437254775</v>
+      </c>
+      <c r="J43">
+        <v>-0.009802767411950096</v>
+      </c>
+      <c r="K43">
+        <v>-0.001331835086177985</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>0.01860827993953423</v>
+        <v>0.01615261697569292</v>
       </c>
       <c r="C44">
-        <v>-0.1013449407912984</v>
+        <v>-0.097064012355862</v>
       </c>
       <c r="D44">
-        <v>-0.03614723125882586</v>
+        <v>0.05754977376374297</v>
       </c>
       <c r="E44">
-        <v>0.02340836386554664</v>
+        <v>-0.05272612324055767</v>
       </c>
       <c r="F44">
-        <v>0.02487121752753216</v>
+        <v>0.03288162893554164</v>
       </c>
       <c r="G44">
-        <v>0.07618789002993459</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.03637712504793353</v>
+      </c>
+      <c r="H44">
+        <v>0.05293440968981614</v>
+      </c>
+      <c r="I44">
+        <v>0.04838023094709593</v>
+      </c>
+      <c r="J44">
+        <v>-0.01191488919819434</v>
+      </c>
+      <c r="K44">
+        <v>-0.05335411731431567</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,148 +2275,232 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>-0.006031765601849544</v>
+        <v>0.004716737682536032</v>
       </c>
       <c r="C46">
-        <v>-0.0590926828897835</v>
+        <v>-0.06394925676543814</v>
       </c>
       <c r="D46">
-        <v>-0.0472800616832583</v>
+        <v>0.02827469060044158</v>
       </c>
       <c r="E46">
-        <v>0.01723689347027313</v>
+        <v>0.0004935741457666992</v>
       </c>
       <c r="F46">
-        <v>-0.01067712915672531</v>
+        <v>0.007986854159715532</v>
       </c>
       <c r="G46">
-        <v>0.05906481306445795</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.01432033435209643</v>
+      </c>
+      <c r="H46">
+        <v>0.04557739657988173</v>
+      </c>
+      <c r="I46">
+        <v>0.09473290670777493</v>
+      </c>
+      <c r="J46">
+        <v>-0.03148327841006957</v>
+      </c>
+      <c r="K46">
+        <v>-0.01730513723011205</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>0.00480933972114872</v>
+        <v>0.02233969796442788</v>
       </c>
       <c r="C47">
-        <v>-0.05883209297650791</v>
+        <v>-0.07305278690810527</v>
       </c>
       <c r="D47">
-        <v>-0.05720711035807056</v>
+        <v>0.04287113585444525</v>
       </c>
       <c r="E47">
-        <v>-0.02048695332934828</v>
+        <v>0.008136422644183811</v>
       </c>
       <c r="F47">
-        <v>-0.05443165549771462</v>
+        <v>-0.007755278042609205</v>
       </c>
       <c r="G47">
-        <v>0.02600752805656127</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.006379553304503164</v>
+      </c>
+      <c r="H47">
+        <v>0.01019890515965836</v>
+      </c>
+      <c r="I47">
+        <v>0.07387833383896213</v>
+      </c>
+      <c r="J47">
+        <v>-0.01508711580870683</v>
+      </c>
+      <c r="K47">
+        <v>0.01553205536767954</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>0.00758775702063908</v>
+        <v>0.01724752724229278</v>
       </c>
       <c r="C48">
-        <v>-0.05820754740192015</v>
+        <v>-0.04411511771682052</v>
       </c>
       <c r="D48">
-        <v>-0.06779855898530415</v>
+        <v>0.05249629839784447</v>
       </c>
       <c r="E48">
-        <v>-0.0164411645856642</v>
+        <v>-0.006622127404659118</v>
       </c>
       <c r="F48">
-        <v>-0.007061966160080924</v>
+        <v>-0.001494803028823488</v>
       </c>
       <c r="G48">
-        <v>0.05788419162610013</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.01944401292211535</v>
+      </c>
+      <c r="H48">
+        <v>0.002871690909873686</v>
+      </c>
+      <c r="I48">
+        <v>0.1187841370024215</v>
+      </c>
+      <c r="J48">
+        <v>-0.02518240411107058</v>
+      </c>
+      <c r="K48">
+        <v>-0.03818847490284668</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.02070256579416593</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.04746184777517072</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.008307220743408394</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.01518633460559069</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>-0.04774444156123667</v>
       </c>
       <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>-0.06136384424986444</v>
+      </c>
+      <c r="H49">
+        <v>0.05095619530019066</v>
+      </c>
+      <c r="I49">
+        <v>-0.06658797213880967</v>
+      </c>
+      <c r="J49">
+        <v>0.08551635879466407</v>
+      </c>
+      <c r="K49">
+        <v>-0.05274999484077699</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>-0.0009608049853827939</v>
+        <v>0.01570228700919139</v>
       </c>
       <c r="C50">
-        <v>-0.06447537202803184</v>
+        <v>-0.07603652540631321</v>
       </c>
       <c r="D50">
-        <v>-0.03076922528557177</v>
+        <v>0.03150244340207481</v>
       </c>
       <c r="E50">
-        <v>-0.009597859815062108</v>
+        <v>-0.01695500001718539</v>
       </c>
       <c r="F50">
-        <v>0.002416646976621461</v>
+        <v>0.00783205281612378</v>
       </c>
       <c r="G50">
-        <v>0.02607501967666468</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.008386825637552232</v>
+      </c>
+      <c r="H50">
+        <v>-0.003535469398880224</v>
+      </c>
+      <c r="I50">
+        <v>0.06414171900452426</v>
+      </c>
+      <c r="J50">
+        <v>0.009246218400788077</v>
+      </c>
+      <c r="K50">
+        <v>0.04996157129770037</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>0.001873113230598689</v>
+        <v>-0.004395277875426965</v>
       </c>
       <c r="C51">
-        <v>-0.0698999355603839</v>
+        <v>-0.03533118745745994</v>
       </c>
       <c r="D51">
-        <v>-0.04232554285176988</v>
+        <v>0.02605016834675226</v>
       </c>
       <c r="E51">
-        <v>0.04148881898753263</v>
+        <v>-0.01440240928376146</v>
       </c>
       <c r="F51">
-        <v>0.005409168922519707</v>
+        <v>0.03460230716741394</v>
       </c>
       <c r="G51">
-        <v>0.006921983067098653</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.001777926747363312</v>
+      </c>
+      <c r="H51">
+        <v>0.02890630250271902</v>
+      </c>
+      <c r="I51">
+        <v>0.09876034936644315</v>
+      </c>
+      <c r="J51">
+        <v>-0.0426577321604835</v>
+      </c>
+      <c r="K51">
+        <v>-0.03729046446948419</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,102 +2520,162 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>0.02924287954030623</v>
+        <v>0.06035746948453491</v>
       </c>
       <c r="C53">
-        <v>-0.121616001652686</v>
+        <v>-0.1316594010651791</v>
       </c>
       <c r="D53">
-        <v>-0.07162085515550835</v>
+        <v>0.0576713301638066</v>
       </c>
       <c r="E53">
-        <v>-0.1177645735520072</v>
+        <v>0.0515384685578506</v>
       </c>
       <c r="F53">
-        <v>-0.05024364077312617</v>
+        <v>-0.0473306815294522</v>
       </c>
       <c r="G53">
-        <v>-0.08182709524550898</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.02161616680815401</v>
+      </c>
+      <c r="H53">
+        <v>-0.09200659498289679</v>
+      </c>
+      <c r="I53">
+        <v>-0.01038264159062397</v>
+      </c>
+      <c r="J53">
+        <v>0.004237249893153327</v>
+      </c>
+      <c r="K53">
+        <v>0.01754288657756619</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>0.0003427618002107468</v>
+        <v>0.01650356140731914</v>
       </c>
       <c r="C54">
-        <v>-0.06819969042297569</v>
+        <v>-0.06973966000030461</v>
       </c>
       <c r="D54">
-        <v>-0.01175026042109802</v>
+        <v>0.01262908044680548</v>
       </c>
       <c r="E54">
-        <v>-0.01969017114075933</v>
+        <v>0.009049063862784486</v>
       </c>
       <c r="F54">
-        <v>-0.001084331508490666</v>
+        <v>-0.008453542827038255</v>
       </c>
       <c r="G54">
-        <v>0.03076928377393184</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.005981693178663419</v>
+      </c>
+      <c r="H54">
+        <v>0.02127143506082044</v>
+      </c>
+      <c r="I54">
+        <v>0.06435025861939353</v>
+      </c>
+      <c r="J54">
+        <v>-0.002266563826563065</v>
+      </c>
+      <c r="K54">
+        <v>-0.024682646278554</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>0.01240027136387124</v>
+        <v>0.03037009034873585</v>
       </c>
       <c r="C55">
-        <v>-0.08372524988801262</v>
+        <v>-0.08340410157593306</v>
       </c>
       <c r="D55">
-        <v>-0.06592023011913169</v>
+        <v>0.05318432886833555</v>
       </c>
       <c r="E55">
-        <v>-0.05160666581175682</v>
+        <v>0.03525554496261801</v>
       </c>
       <c r="F55">
-        <v>-0.03779689082109933</v>
+        <v>-0.03872734972832345</v>
       </c>
       <c r="G55">
-        <v>-0.01289861236657911</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.007218966238802079</v>
+      </c>
+      <c r="H55">
+        <v>-0.04131235138781059</v>
+      </c>
+      <c r="I55">
+        <v>0.003001188544494269</v>
+      </c>
+      <c r="J55">
+        <v>-0.001531000265383488</v>
+      </c>
+      <c r="K55">
+        <v>-0.01430843535634902</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>0.01156003086608691</v>
+        <v>0.04839467078874303</v>
       </c>
       <c r="C56">
-        <v>-0.1492288769776002</v>
+        <v>-0.1540187023257212</v>
       </c>
       <c r="D56">
-        <v>-0.07573108959881836</v>
+        <v>0.08121175772944152</v>
       </c>
       <c r="E56">
-        <v>-0.08238151182588936</v>
+        <v>0.0945104198223119</v>
       </c>
       <c r="F56">
-        <v>-0.07216046428676186</v>
+        <v>-0.05169303346243877</v>
       </c>
       <c r="G56">
-        <v>-0.1227777540725013</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.03670250021151872</v>
+      </c>
+      <c r="H56">
+        <v>-0.1670546572427947</v>
+      </c>
+      <c r="I56">
+        <v>-0.01830887498731822</v>
+      </c>
+      <c r="J56">
+        <v>0.01771413389953343</v>
+      </c>
+      <c r="K56">
+        <v>0.001193427266830779</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,286 +2695,442 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>0.02175248472079817</v>
+        <v>0.0180555065881238</v>
       </c>
       <c r="C58">
-        <v>-0.2863066673603535</v>
+        <v>-0.1730428035088961</v>
       </c>
       <c r="D58">
-        <v>0.01074862741697616</v>
+        <v>0.04267085939658385</v>
       </c>
       <c r="E58">
-        <v>0.1470128605368209</v>
+        <v>-0.1613964804399225</v>
       </c>
       <c r="F58">
-        <v>0.2635949333602192</v>
+        <v>0.2046233986386327</v>
       </c>
       <c r="G58">
-        <v>-0.04279476902244925</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.1979463008943834</v>
+      </c>
+      <c r="H58">
+        <v>-0.06609949039405535</v>
+      </c>
+      <c r="I58">
+        <v>0.08275943164066757</v>
+      </c>
+      <c r="J58">
+        <v>-0.06055897277089655</v>
+      </c>
+      <c r="K58">
+        <v>0.07771670517473935</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>0.2883446905373114</v>
+        <v>0.2883515520688782</v>
       </c>
       <c r="C59">
-        <v>-0.005556771938202609</v>
+        <v>0.05298695577990438</v>
       </c>
       <c r="D59">
-        <v>0.00405049658911016</v>
+        <v>-0.005822668711767409</v>
       </c>
       <c r="E59">
-        <v>0.05620862062777591</v>
+        <v>-0.003042896134503298</v>
       </c>
       <c r="F59">
-        <v>-0.04744728833444733</v>
+        <v>0.04362859483976633</v>
       </c>
       <c r="G59">
-        <v>-0.008389515269028494</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.02961054016200481</v>
+      </c>
+      <c r="H59">
+        <v>-0.004225763770403683</v>
+      </c>
+      <c r="I59">
+        <v>-0.02535400017605231</v>
+      </c>
+      <c r="J59">
+        <v>-0.008964617235647402</v>
+      </c>
+      <c r="K59">
+        <v>0.03684045497873059</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>0.1026029026164855</v>
+        <v>0.1528948882901592</v>
       </c>
       <c r="C60">
-        <v>-0.1460881308433405</v>
+        <v>-0.1571794857900283</v>
       </c>
       <c r="D60">
-        <v>-0.08152007151937678</v>
+        <v>0.03878694793691847</v>
       </c>
       <c r="E60">
-        <v>-0.09910984546141394</v>
+        <v>0.1450463311938281</v>
       </c>
       <c r="F60">
-        <v>-0.1863348999163101</v>
+        <v>-0.1320186746866493</v>
       </c>
       <c r="G60">
-        <v>0.2606249087272285</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.005086306621925794</v>
+      </c>
+      <c r="H60">
+        <v>0.2282037242990734</v>
+      </c>
+      <c r="I60">
+        <v>-0.2391713563908716</v>
+      </c>
+      <c r="J60">
+        <v>-0.02206736886515654</v>
+      </c>
+      <c r="K60">
+        <v>-0.01813157035237885</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>-0.002006972757855297</v>
+        <v>0.02472314119558982</v>
       </c>
       <c r="C61">
-        <v>-0.07937763155190916</v>
+        <v>-0.09833264198587753</v>
       </c>
       <c r="D61">
-        <v>-0.06453482756533517</v>
+        <v>0.05492386127117243</v>
       </c>
       <c r="E61">
-        <v>-0.02667862520424032</v>
+        <v>0.01321975428445875</v>
       </c>
       <c r="F61">
-        <v>-0.03134848648301448</v>
+        <v>-0.01430559821671967</v>
       </c>
       <c r="G61">
-        <v>0.07312480526916154</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.02001171472791046</v>
+      </c>
+      <c r="H61">
+        <v>0.03216853938946117</v>
+      </c>
+      <c r="I61">
+        <v>0.05202025229370762</v>
+      </c>
+      <c r="J61">
+        <v>0.03480869345904579</v>
+      </c>
+      <c r="K61">
+        <v>-0.03371163131754164</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.002577501569940297</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.01386252076833226</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>0.002953605990718911</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>-0.002098928418067165</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>-0.007553750297670826</v>
       </c>
       <c r="G62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>0.03373280328494087</v>
+      </c>
+      <c r="H62">
+        <v>0.01879175068378662</v>
+      </c>
+      <c r="I62">
+        <v>0.01837592619775228</v>
+      </c>
+      <c r="J62">
+        <v>0.02124904815417918</v>
+      </c>
+      <c r="K62">
+        <v>0.008431303219005096</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>-0.003097565880228273</v>
+        <v>0.02703901490751696</v>
       </c>
       <c r="C63">
-        <v>-0.05692081740041206</v>
+        <v>-0.06385007915969967</v>
       </c>
       <c r="D63">
-        <v>-0.03885395447118586</v>
+        <v>0.05884460876747342</v>
       </c>
       <c r="E63">
-        <v>-0.02078671916131297</v>
+        <v>0.008243983235290641</v>
       </c>
       <c r="F63">
-        <v>-0.003187518334729971</v>
+        <v>-0.004366595226157614</v>
       </c>
       <c r="G63">
-        <v>0.004885595599418737</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.002223781481329155</v>
+      </c>
+      <c r="H63">
+        <v>0.003915263152920858</v>
+      </c>
+      <c r="I63">
+        <v>0.06931032252503451</v>
+      </c>
+      <c r="J63">
+        <v>0.01754735740865819</v>
+      </c>
+      <c r="K63">
+        <v>-0.01491475058913971</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>-0.004649143591349182</v>
+        <v>0.01842930106989527</v>
       </c>
       <c r="C64">
-        <v>-0.08099055471074179</v>
+        <v>-0.09004351397211974</v>
       </c>
       <c r="D64">
-        <v>-0.06777820199842668</v>
+        <v>0.03347431574483779</v>
       </c>
       <c r="E64">
-        <v>-0.008399793516715206</v>
+        <v>-0.0182106508080661</v>
       </c>
       <c r="F64">
-        <v>0.01122116738325389</v>
+        <v>-0.008933662208606351</v>
       </c>
       <c r="G64">
-        <v>0.06081836565115029</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.04504018605104178</v>
+      </c>
+      <c r="H64">
+        <v>0.06525685301772066</v>
+      </c>
+      <c r="I64">
+        <v>0.0488084185095418</v>
+      </c>
+      <c r="J64">
+        <v>0.01335777630451978</v>
+      </c>
+      <c r="K64">
+        <v>-0.08097901638391503</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>-0.001435620743442174</v>
+        <v>0.03218516724205469</v>
       </c>
       <c r="C65">
-        <v>-0.08642165469969462</v>
+        <v>-0.09286198456812587</v>
       </c>
       <c r="D65">
-        <v>-0.03401093666323458</v>
+        <v>0.02168425119740701</v>
       </c>
       <c r="E65">
-        <v>0.01732877588308192</v>
+        <v>-0.01410309933970425</v>
       </c>
       <c r="F65">
-        <v>-0.002196453922745931</v>
+        <v>-0.01001987077227475</v>
       </c>
       <c r="G65">
-        <v>0.06907901448263644</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.0004140070143379266</v>
+      </c>
+      <c r="H65">
+        <v>0.08802891827095483</v>
+      </c>
+      <c r="I65">
+        <v>-0.0131208083187946</v>
+      </c>
+      <c r="J65">
+        <v>0.00427080310565729</v>
+      </c>
+      <c r="K65">
+        <v>-0.06761691581454503</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>-0.005487445200977333</v>
+        <v>0.02180860029888458</v>
       </c>
       <c r="C66">
-        <v>-0.1678299834620816</v>
+        <v>-0.1706132587580383</v>
       </c>
       <c r="D66">
-        <v>-0.05023745605187589</v>
+        <v>0.05082546885394473</v>
       </c>
       <c r="E66">
-        <v>0.03163179074730603</v>
+        <v>0.00381554338548552</v>
       </c>
       <c r="F66">
-        <v>-0.02485466044320967</v>
+        <v>0.02035146442825059</v>
       </c>
       <c r="G66">
-        <v>0.09938820499420618</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.01385981260294892</v>
+      </c>
+      <c r="H66">
+        <v>0.03737331709859554</v>
+      </c>
+      <c r="I66">
+        <v>0.04696725088301496</v>
+      </c>
+      <c r="J66">
+        <v>0.04213629317321534</v>
+      </c>
+      <c r="K66">
+        <v>-0.06665664889294237</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>0.02685396366889771</v>
+        <v>0.01896926029575156</v>
       </c>
       <c r="C67">
-        <v>-0.03011335465007279</v>
+        <v>-0.05117211763612577</v>
       </c>
       <c r="D67">
-        <v>-0.05841408763393104</v>
+        <v>0.04005101164451065</v>
       </c>
       <c r="E67">
-        <v>-0.04945875463974853</v>
+        <v>-0.02970015412616966</v>
       </c>
       <c r="F67">
-        <v>-0.02741479057900807</v>
+        <v>-0.01286053625274083</v>
       </c>
       <c r="G67">
-        <v>0.04800457087944751</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.02957547286713041</v>
+      </c>
+      <c r="H67">
+        <v>0.04209452563289708</v>
+      </c>
+      <c r="I67">
+        <v>0.0484489052964343</v>
+      </c>
+      <c r="J67">
+        <v>-0.04115308659619923</v>
+      </c>
+      <c r="K67">
+        <v>0.04784189521367131</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>0.2944852479914909</v>
+        <v>0.2927337085703633</v>
       </c>
       <c r="C68">
-        <v>0.01405371729976846</v>
+        <v>0.075732987854799</v>
       </c>
       <c r="D68">
-        <v>-0.009343584441042318</v>
+        <v>-0.02316498932712016</v>
       </c>
       <c r="E68">
-        <v>0.02292523832440482</v>
+        <v>-0.001823105989329227</v>
       </c>
       <c r="F68">
-        <v>-0.005665811124874331</v>
+        <v>0.02379345315219569</v>
       </c>
       <c r="G68">
-        <v>0.0100170436776594</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.04573873742051521</v>
+      </c>
+      <c r="H68">
+        <v>-0.02186088079118695</v>
+      </c>
+      <c r="I68">
+        <v>0.04265839292156236</v>
+      </c>
+      <c r="J68">
+        <v>0.001314318497925203</v>
+      </c>
+      <c r="K68">
+        <v>0.04298822818169219</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>0.004952199827124852</v>
+        <v>0.008832979832824115</v>
       </c>
       <c r="C69">
-        <v>-0.04860004366108048</v>
+        <v>-0.04517731300545946</v>
       </c>
       <c r="D69">
-        <v>-0.05437726265068961</v>
+        <v>0.02414103363917622</v>
       </c>
       <c r="E69">
-        <v>-0.03519564483035822</v>
+        <v>0.008374158795987352</v>
       </c>
       <c r="F69">
-        <v>-0.005016602221065808</v>
+        <v>-0.004490694532047954</v>
       </c>
       <c r="G69">
-        <v>0.02206845994379321</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.006478005345620029</v>
+      </c>
+      <c r="H69">
+        <v>0.02231729294883931</v>
+      </c>
+      <c r="I69">
+        <v>0.03670797960278895</v>
+      </c>
+      <c r="J69">
+        <v>-0.01539445321825558</v>
+      </c>
+      <c r="K69">
+        <v>0.01798080648945411</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,585 +3150,897 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>0.2893227387951597</v>
+        <v>0.2746604515613691</v>
       </c>
       <c r="C71">
-        <v>0.03238546494185531</v>
+        <v>0.07951910223730456</v>
       </c>
       <c r="D71">
-        <v>0.006702913076384993</v>
+        <v>-0.02155126318985619</v>
       </c>
       <c r="E71">
-        <v>0.02166456074820941</v>
+        <v>-0.04330960196837458</v>
       </c>
       <c r="F71">
-        <v>0.01692602020305851</v>
+        <v>0.04600318252546499</v>
       </c>
       <c r="G71">
-        <v>-0.001422443473589165</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.03933964630372275</v>
+      </c>
+      <c r="H71">
+        <v>-0.01963645234558746</v>
+      </c>
+      <c r="I71">
+        <v>0.05560484095449991</v>
+      </c>
+      <c r="J71">
+        <v>-0.03144901702976137</v>
+      </c>
+      <c r="K71">
+        <v>0.1090379151593105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>0.005781929487452375</v>
+        <v>0.05456832434307373</v>
       </c>
       <c r="C72">
-        <v>-0.1476296351002765</v>
+        <v>-0.1372395157333444</v>
       </c>
       <c r="D72">
-        <v>-0.06669633164322426</v>
+        <v>0.04682805140557034</v>
       </c>
       <c r="E72">
-        <v>-0.01977674605139475</v>
+        <v>0.04807122404083261</v>
       </c>
       <c r="F72">
-        <v>0.04068294462782786</v>
+        <v>-0.03491137850261498</v>
       </c>
       <c r="G72">
-        <v>0.1262657232544684</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.01418201263465669</v>
+      </c>
+      <c r="H72">
+        <v>0.003768417087977578</v>
+      </c>
+      <c r="I72">
+        <v>0.05583290558268537</v>
+      </c>
+      <c r="J72">
+        <v>0.02202281703478739</v>
+      </c>
+      <c r="K72">
+        <v>-0.1117550456101724</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>0.06075443900613231</v>
+        <v>0.1560665026271286</v>
       </c>
       <c r="C73">
-        <v>-0.1037677365976486</v>
+        <v>-0.1985347307176169</v>
       </c>
       <c r="D73">
-        <v>-0.1143728414091067</v>
+        <v>0.08276444369134958</v>
       </c>
       <c r="E73">
-        <v>-0.1798094708270769</v>
+        <v>0.1475625203303839</v>
       </c>
       <c r="F73">
-        <v>-0.2129192961503743</v>
+        <v>-0.2196040389659533</v>
       </c>
       <c r="G73">
-        <v>0.3117411262952637</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.08782898214526601</v>
+      </c>
+      <c r="H73">
+        <v>0.3469520583388743</v>
+      </c>
+      <c r="I73">
+        <v>-0.2973979549219098</v>
+      </c>
+      <c r="J73">
+        <v>-0.03219881364042063</v>
+      </c>
+      <c r="K73">
+        <v>0.1370858400478877</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>0.008365685720732131</v>
+        <v>0.03870747622750641</v>
       </c>
       <c r="C74">
-        <v>-0.08026795906628434</v>
+        <v>-0.09775636295608132</v>
       </c>
       <c r="D74">
-        <v>-0.07254243870091989</v>
+        <v>0.04599811138457235</v>
       </c>
       <c r="E74">
-        <v>-0.06596375362916845</v>
+        <v>0.02357876197019365</v>
       </c>
       <c r="F74">
-        <v>-0.04366457588455088</v>
+        <v>-0.04426391033175644</v>
       </c>
       <c r="G74">
-        <v>-0.04777040032928578</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.01545661070863723</v>
+      </c>
+      <c r="H74">
+        <v>-0.0508377467888614</v>
+      </c>
+      <c r="I74">
+        <v>0.02217963366958265</v>
+      </c>
+      <c r="J74">
+        <v>-0.01136799939762359</v>
+      </c>
+      <c r="K74">
+        <v>-0.0126264526693927</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>0.03600634883918018</v>
+        <v>0.06285001185763332</v>
       </c>
       <c r="C75">
-        <v>-0.1434227092275305</v>
+        <v>-0.163509821869582</v>
       </c>
       <c r="D75">
-        <v>-0.08239868303822223</v>
+        <v>0.08311810026333616</v>
       </c>
       <c r="E75">
-        <v>-0.1378708175105652</v>
+        <v>0.02520181646464608</v>
       </c>
       <c r="F75">
-        <v>-0.03673189473944139</v>
+        <v>-0.0992206825002316</v>
       </c>
       <c r="G75">
-        <v>-0.1841702696667165</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.03549425376480681</v>
+      </c>
+      <c r="H75">
+        <v>-0.219137094087683</v>
+      </c>
+      <c r="I75">
+        <v>0.01798952525994282</v>
+      </c>
+      <c r="J75">
+        <v>0.03893304606260713</v>
+      </c>
+      <c r="K75">
+        <v>0.1240560408914323</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>0.01294071830911517</v>
+        <v>0.04529043303575896</v>
       </c>
       <c r="C76">
-        <v>-0.1066196469385311</v>
+        <v>-0.1264330666716852</v>
       </c>
       <c r="D76">
-        <v>-0.06623688061020441</v>
+        <v>0.07488478354126035</v>
       </c>
       <c r="E76">
-        <v>-0.08028255291374078</v>
+        <v>0.04246087901953128</v>
       </c>
       <c r="F76">
-        <v>-0.06001975353161836</v>
+        <v>-0.05223786504763967</v>
       </c>
       <c r="G76">
-        <v>-0.04625941722402636</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.04602928221369496</v>
+      </c>
+      <c r="H76">
+        <v>-0.08068054414310764</v>
+      </c>
+      <c r="I76">
+        <v>-0.007813915716574239</v>
+      </c>
+      <c r="J76">
+        <v>0.03867738842904372</v>
+      </c>
+      <c r="K76">
+        <v>-0.02594336386898537</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>0.0908508690000827</v>
+        <v>0.0577206615763772</v>
       </c>
       <c r="C77">
-        <v>-0.3858490555045824</v>
+        <v>-0.4010354092804206</v>
       </c>
       <c r="D77">
-        <v>0.8319527977722752</v>
+        <v>-0.8983738790628256</v>
       </c>
       <c r="E77">
-        <v>-0.2751394649976602</v>
+        <v>-0.01150371168281694</v>
       </c>
       <c r="F77">
-        <v>-0.1274651164617853</v>
+        <v>-0.05474862909715011</v>
       </c>
       <c r="G77">
-        <v>0.004340445432547671</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.05564290849483731</v>
+      </c>
+      <c r="H77">
+        <v>-0.03651935887844714</v>
+      </c>
+      <c r="I77">
+        <v>0.06179052903410395</v>
+      </c>
+      <c r="J77">
+        <v>0.05653846780434884</v>
+      </c>
+      <c r="K77">
+        <v>0.02008875973078378</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>0.02363163634007599</v>
+        <v>0.03755263265776543</v>
       </c>
       <c r="C78">
-        <v>-0.126289893979834</v>
+        <v>-0.1135224319075077</v>
       </c>
       <c r="D78">
-        <v>-0.1867452110664637</v>
+        <v>0.09530981582582265</v>
       </c>
       <c r="E78">
-        <v>0.1014443659625041</v>
+        <v>0.01551870273433445</v>
       </c>
       <c r="F78">
-        <v>-0.1225544286481683</v>
+        <v>0.03954828581985002</v>
       </c>
       <c r="G78">
-        <v>-0.1287016933368776</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.03853761964226052</v>
+      </c>
+      <c r="H78">
+        <v>-0.1155305580646487</v>
+      </c>
+      <c r="I78">
+        <v>0.06651953260941894</v>
+      </c>
+      <c r="J78">
+        <v>-0.06665447070563242</v>
+      </c>
+      <c r="K78">
+        <v>-0.09099605704624832</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>0.01988241626660354</v>
+        <v>0.05684435518247979</v>
       </c>
       <c r="C79">
-        <v>-0.1638157192957881</v>
+        <v>-0.1404237706252267</v>
       </c>
       <c r="D79">
-        <v>-0.1150709927787709</v>
+        <v>0.0681841831893845</v>
       </c>
       <c r="E79">
-        <v>-0.0961210614169795</v>
+        <v>0.05440055066052365</v>
       </c>
       <c r="F79">
-        <v>-0.07345253771885808</v>
+        <v>-0.04311369362599015</v>
       </c>
       <c r="G79">
-        <v>-0.2834730538485115</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>-0.01389179291289504</v>
+      </c>
+      <c r="H79">
+        <v>-0.2567067424508605</v>
+      </c>
+      <c r="I79">
+        <v>0.05394421526068192</v>
+      </c>
+      <c r="J79">
+        <v>-0.01917112705093884</v>
+      </c>
+      <c r="K79">
+        <v>0.049263966331749</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>0.007153047461789371</v>
+        <v>0.02003644462763191</v>
       </c>
       <c r="C80">
-        <v>-0.05320748874726044</v>
+        <v>-0.04438293926280917</v>
       </c>
       <c r="D80">
-        <v>-0.04998189885162412</v>
+        <v>0.03770774454227988</v>
       </c>
       <c r="E80">
-        <v>0.04042097921914604</v>
+        <v>0.01519467703942703</v>
       </c>
       <c r="F80">
-        <v>-0.01158107450645927</v>
+        <v>0.05938868074268507</v>
       </c>
       <c r="G80">
-        <v>0.0063025875502903</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.009409162247075704</v>
+      </c>
+      <c r="H80">
+        <v>0.07474178087569812</v>
+      </c>
+      <c r="I80">
+        <v>-0.04271015423721873</v>
+      </c>
+      <c r="J80">
+        <v>-0.02270764023169529</v>
+      </c>
+      <c r="K80">
+        <v>0.03929459731708395</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>0.000197248690157256</v>
+        <v>0.01671449984764782</v>
       </c>
       <c r="C81">
-        <v>-0.07700315688005849</v>
+        <v>-0.096343111283482</v>
       </c>
       <c r="D81">
-        <v>-0.07317554854673565</v>
+        <v>0.0568005557243316</v>
       </c>
       <c r="E81">
-        <v>-0.07409378917044175</v>
+        <v>0.03138646106392814</v>
       </c>
       <c r="F81">
-        <v>-0.05316507357395154</v>
+        <v>-0.01695224771320218</v>
       </c>
       <c r="G81">
-        <v>-0.08657309887800148</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.01849476067905676</v>
+      </c>
+      <c r="H81">
+        <v>-0.1082232557830167</v>
+      </c>
+      <c r="I81">
+        <v>0.06588650906652177</v>
+      </c>
+      <c r="J81">
+        <v>-0.02804594962565796</v>
+      </c>
+      <c r="K81">
+        <v>0.036739236549835</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>0.01371955363655379</v>
+        <v>0.04583510385267291</v>
       </c>
       <c r="C82">
-        <v>-0.07768665429117237</v>
+        <v>-0.1051101953696045</v>
       </c>
       <c r="D82">
-        <v>-0.07291954614012826</v>
+        <v>0.06511706159239047</v>
       </c>
       <c r="E82">
-        <v>-0.08904458680015076</v>
+        <v>0.03724790709358775</v>
       </c>
       <c r="F82">
-        <v>-0.05068157742358409</v>
+        <v>-0.03292072532654376</v>
       </c>
       <c r="G82">
-        <v>-0.04445728046210597</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>-0.05287835393547734</v>
+      </c>
+      <c r="H82">
+        <v>-0.0805081377787219</v>
+      </c>
+      <c r="I82">
+        <v>0.01275521778682251</v>
+      </c>
+      <c r="J82">
+        <v>0.0252244512922383</v>
+      </c>
+      <c r="K82">
+        <v>0.003248575211716391</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>-0.00428268652393319</v>
+        <v>-0.0009315459027093364</v>
       </c>
       <c r="C83">
-        <v>-0.0191702685732475</v>
+        <v>0.02293374967659539</v>
       </c>
       <c r="D83">
-        <v>0.132286428835379</v>
+        <v>-0.05961806319467029</v>
       </c>
       <c r="E83">
-        <v>0.6209603429494109</v>
+        <v>0.7038742353023046</v>
       </c>
       <c r="F83">
-        <v>-0.6686556897783915</v>
+        <v>0.6463257598140033</v>
       </c>
       <c r="G83">
-        <v>-0.1201758780816849</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.1104708912289231</v>
+      </c>
+      <c r="H83">
+        <v>-0.01627794906618871</v>
+      </c>
+      <c r="I83">
+        <v>-0.0975612088132015</v>
+      </c>
+      <c r="J83">
+        <v>0.07017382851738714</v>
+      </c>
+      <c r="K83">
+        <v>-0.04530310561851328</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>-0.01265287709288167</v>
+        <v>0.0136878493959595</v>
       </c>
       <c r="C84">
-        <v>-0.08906635032765053</v>
+        <v>-0.06428433089799011</v>
       </c>
       <c r="D84">
-        <v>-0.03612207680249462</v>
+        <v>0.08828446080098445</v>
       </c>
       <c r="E84">
-        <v>0.06234629262816506</v>
+        <v>-0.3336542710381323</v>
       </c>
       <c r="F84">
-        <v>0.1475172797926154</v>
+        <v>0.2664111047100781</v>
       </c>
       <c r="G84">
-        <v>-0.00111149024041952</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>-0.3037569832636565</v>
+      </c>
+      <c r="H84">
+        <v>0.07841813613939806</v>
+      </c>
+      <c r="I84">
+        <v>-0.0652199310948889</v>
+      </c>
+      <c r="J84">
+        <v>0.776594735674015</v>
+      </c>
+      <c r="K84">
+        <v>0.1448790084402274</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>-0.003382651928015165</v>
+        <v>0.0303871173319609</v>
       </c>
       <c r="C85">
-        <v>-0.1142244783966347</v>
+        <v>-0.1169896632388975</v>
       </c>
       <c r="D85">
-        <v>-0.08029668685563919</v>
+        <v>0.08278745685796109</v>
       </c>
       <c r="E85">
-        <v>-0.09026599891756705</v>
+        <v>0.0707192991988376</v>
       </c>
       <c r="F85">
-        <v>-0.0697694279352008</v>
+        <v>-0.07909529653800466</v>
       </c>
       <c r="G85">
-        <v>-0.2073614885804876</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.05734707568089482</v>
+      </c>
+      <c r="H85">
+        <v>-0.2301705034811854</v>
+      </c>
+      <c r="I85">
+        <v>0.005692165383558182</v>
+      </c>
+      <c r="J85">
+        <v>0.04036579658874491</v>
+      </c>
+      <c r="K85">
+        <v>0.06417551941555931</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>0.01827014212129328</v>
+        <v>0.01446010089815818</v>
       </c>
       <c r="C86">
-        <v>-0.08147637620903</v>
+        <v>-0.07735470750985754</v>
       </c>
       <c r="D86">
-        <v>0.004738253936333772</v>
+        <v>0.03080485730786751</v>
       </c>
       <c r="E86">
-        <v>0.007671073145196341</v>
+        <v>-0.04478631825763946</v>
       </c>
       <c r="F86">
-        <v>0.01575081022726028</v>
+        <v>0.07135951587227016</v>
       </c>
       <c r="G86">
-        <v>0.0757138551890507</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.0186272146347251</v>
+      </c>
+      <c r="H86">
+        <v>-0.04916327461265462</v>
+      </c>
+      <c r="I86">
+        <v>-0.005749774967892181</v>
+      </c>
+      <c r="J86">
+        <v>-0.1438746511854063</v>
+      </c>
+      <c r="K86">
+        <v>0.1291348254784308</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>0.02196356308085839</v>
+        <v>0.02697869294147754</v>
       </c>
       <c r="C87">
-        <v>-0.1531540172985806</v>
+        <v>-0.1186051075147286</v>
       </c>
       <c r="D87">
-        <v>-0.04304474773818595</v>
+        <v>0.02142785504482213</v>
       </c>
       <c r="E87">
-        <v>0.08533013973699245</v>
+        <v>-0.007777189590288426</v>
       </c>
       <c r="F87">
-        <v>0.05270936836955809</v>
+        <v>0.03436711589774454</v>
       </c>
       <c r="G87">
-        <v>0.01927302510245247</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.04986052437499438</v>
+      </c>
+      <c r="H87">
+        <v>-0.006071310376801383</v>
+      </c>
+      <c r="I87">
+        <v>0.04058062685934708</v>
+      </c>
+      <c r="J87">
+        <v>0.01912999740138702</v>
+      </c>
+      <c r="K87">
+        <v>-0.09218306180232946</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>0.003523824877654462</v>
+        <v>0.04003463724758744</v>
       </c>
       <c r="C88">
-        <v>-0.03654675627258252</v>
+        <v>-0.05834511879819605</v>
       </c>
       <c r="D88">
-        <v>-0.03450550351865511</v>
+        <v>0.04077695491481142</v>
       </c>
       <c r="E88">
-        <v>-0.05084869907823273</v>
+        <v>0.01126720512779151</v>
       </c>
       <c r="F88">
-        <v>-0.009738114053493375</v>
+        <v>-0.02440980770857425</v>
       </c>
       <c r="G88">
-        <v>0.0009138391559498138</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.005313428554018909</v>
+      </c>
+      <c r="H88">
+        <v>0.01370428236194508</v>
+      </c>
+      <c r="I88">
+        <v>0.002707509450513598</v>
+      </c>
+      <c r="J88">
+        <v>-0.01929685670296686</v>
+      </c>
+      <c r="K88">
+        <v>-0.007949399777781755</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>0.4008836966654695</v>
+        <v>0.3907122928838012</v>
       </c>
       <c r="C89">
-        <v>0.05986273076983416</v>
+        <v>0.1207166030577158</v>
       </c>
       <c r="D89">
-        <v>-0.07242121111289009</v>
+        <v>-0.0367162693709135</v>
       </c>
       <c r="E89">
-        <v>0.05557556968007706</v>
+        <v>-0.04927324189441224</v>
       </c>
       <c r="F89">
-        <v>0.09726090165249568</v>
+        <v>0.01145165432488189</v>
       </c>
       <c r="G89">
-        <v>-0.01827499681434121</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.02694513598205998</v>
+      </c>
+      <c r="H89">
+        <v>0.03822528827992137</v>
+      </c>
+      <c r="I89">
+        <v>-0.003475091956661945</v>
+      </c>
+      <c r="J89">
+        <v>0.07064673690669594</v>
+      </c>
+      <c r="K89">
+        <v>-0.7470226535371502</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>0.3067520505628661</v>
+        <v>0.3160958274339184</v>
       </c>
       <c r="C90">
-        <v>0.01467239360522357</v>
+        <v>0.07830351795699531</v>
       </c>
       <c r="D90">
-        <v>-0.004823819362052105</v>
+        <v>-0.01855198854047831</v>
       </c>
       <c r="E90">
-        <v>0.07413584723193328</v>
+        <v>-0.01234261946141803</v>
       </c>
       <c r="F90">
-        <v>-0.0458375276825316</v>
+        <v>0.03222339148022545</v>
       </c>
       <c r="G90">
-        <v>0.03264731548936626</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.01208352497829154</v>
+      </c>
+      <c r="H90">
+        <v>0.001410363759380576</v>
+      </c>
+      <c r="I90">
+        <v>0.007496177609908497</v>
+      </c>
+      <c r="J90">
+        <v>0.01178428439211548</v>
+      </c>
+      <c r="K90">
+        <v>0.09707835477983461</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>0.02078842438052595</v>
+        <v>0.0546920851823114</v>
       </c>
       <c r="C91">
-        <v>-0.07932242627072135</v>
+        <v>-0.07823659116678912</v>
       </c>
       <c r="D91">
-        <v>-0.06319671677558943</v>
+        <v>0.05315402662759943</v>
       </c>
       <c r="E91">
-        <v>-0.04703528856433095</v>
+        <v>0.06306619880460798</v>
       </c>
       <c r="F91">
-        <v>-0.05847602896149957</v>
+        <v>-0.01609016859879354</v>
       </c>
       <c r="G91">
-        <v>-0.07940196968380128</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.01442793050809169</v>
+      </c>
+      <c r="H91">
+        <v>-0.08991437177637723</v>
+      </c>
+      <c r="I91">
+        <v>-0.01442688193238519</v>
+      </c>
+      <c r="J91">
+        <v>0.01250467426635428</v>
+      </c>
+      <c r="K91">
+        <v>0.0054360991370465</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>0.3844314481051925</v>
+        <v>0.3503843813669993</v>
       </c>
       <c r="C92">
-        <v>0.05485660557488651</v>
+        <v>0.1247324013904262</v>
       </c>
       <c r="D92">
-        <v>0.01491525292216007</v>
+        <v>-0.05495106619595268</v>
       </c>
       <c r="E92">
-        <v>-0.02127951992331483</v>
+        <v>-0.04599049023809471</v>
       </c>
       <c r="F92">
-        <v>0.1182350273675618</v>
+        <v>0.003045595271352976</v>
       </c>
       <c r="G92">
-        <v>-0.01410607813097608</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.04773106648358238</v>
+      </c>
+      <c r="H92">
+        <v>-0.01077867615383078</v>
+      </c>
+      <c r="I92">
+        <v>0.06991640607825819</v>
+      </c>
+      <c r="J92">
+        <v>-0.009213881039606299</v>
+      </c>
+      <c r="K92">
+        <v>0.1400486654704216</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>0.3068417159747064</v>
+        <v>0.3069412052690869</v>
       </c>
       <c r="C93">
-        <v>0.06794290544513611</v>
+        <v>0.1217182019884527</v>
       </c>
       <c r="D93">
-        <v>-0.01218039095877953</v>
+        <v>-0.006988805520779356</v>
       </c>
       <c r="E93">
-        <v>0.06399641519475356</v>
+        <v>-0.03820496183142563</v>
       </c>
       <c r="F93">
-        <v>0.03751466423535386</v>
+        <v>0.04305867990328711</v>
       </c>
       <c r="G93">
-        <v>-0.002222593592350794</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.009283896494931169</v>
+      </c>
+      <c r="H93">
+        <v>-0.03584696330277362</v>
+      </c>
+      <c r="I93">
+        <v>0.02651510014584392</v>
+      </c>
+      <c r="J93">
+        <v>-0.02901567722779996</v>
+      </c>
+      <c r="K93">
+        <v>0.1143942857313704</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>0.02927776697064836</v>
+        <v>0.08240671429776655</v>
       </c>
       <c r="C94">
-        <v>-0.1944385033492127</v>
+        <v>-0.1649888875840438</v>
       </c>
       <c r="D94">
-        <v>-0.144320496726646</v>
+        <v>0.113222640129363</v>
       </c>
       <c r="E94">
-        <v>-0.1304287504130229</v>
+        <v>0.09138542991371972</v>
       </c>
       <c r="F94">
-        <v>-0.03609179578915876</v>
+        <v>-0.08449222257949912</v>
       </c>
       <c r="G94">
-        <v>-0.6050406015971135</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.06864232402649284</v>
+      </c>
+      <c r="H94">
+        <v>-0.5560908087653129</v>
+      </c>
+      <c r="I94">
+        <v>-0.1843597434313786</v>
+      </c>
+      <c r="J94">
+        <v>0.06374652380979716</v>
+      </c>
+      <c r="K94">
+        <v>-0.04835603773230738</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>0.01699054663144686</v>
+        <v>0.04427411548985306</v>
       </c>
       <c r="C95">
-        <v>-0.1089836792335982</v>
+        <v>-0.1305236152879512</v>
       </c>
       <c r="D95">
-        <v>-0.0511386931122054</v>
+        <v>0.06626362033127702</v>
       </c>
       <c r="E95">
-        <v>-0.04856747030335717</v>
+        <v>-0.006559468301603669</v>
       </c>
       <c r="F95">
-        <v>-0.09866012247581933</v>
+        <v>-0.04841372293571022</v>
       </c>
       <c r="G95">
-        <v>0.05321295528421537</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.07250813139550623</v>
+      </c>
+      <c r="H95">
+        <v>0.04480910946132606</v>
+      </c>
+      <c r="I95">
+        <v>0.03055334774033674</v>
+      </c>
+      <c r="J95">
+        <v>0.08452886732409624</v>
+      </c>
+      <c r="K95">
+        <v>-0.1572550042302903</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,79 +4060,127 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>-0.0003087123388768745</v>
+        <v>0.02015666624497715</v>
       </c>
       <c r="C97">
-        <v>0.0004988863969007906</v>
+        <v>-0.0232695682731455</v>
       </c>
       <c r="D97">
-        <v>-0.0001930832032149287</v>
+        <v>-0.007974563249978067</v>
       </c>
       <c r="E97">
-        <v>-0.004981531989100808</v>
+        <v>-0.03627814655863979</v>
       </c>
       <c r="F97">
-        <v>0.0004257352310227919</v>
+        <v>-0.004633753286501925</v>
       </c>
       <c r="G97">
-        <v>0.004636773466929824</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>-0.04773647787743585</v>
+      </c>
+      <c r="H97">
+        <v>0.03384941583144397</v>
+      </c>
+      <c r="I97">
+        <v>-0.007629049021974024</v>
+      </c>
+      <c r="J97">
+        <v>-0.06633919273024164</v>
+      </c>
+      <c r="K97">
+        <v>-0.04376912308377768</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>0.07821051386457317</v>
+        <v>0.1375677301730275</v>
       </c>
       <c r="C98">
-        <v>-0.1390600085573419</v>
+        <v>-0.1600914329808704</v>
       </c>
       <c r="D98">
-        <v>-0.1410409935391465</v>
+        <v>0.08787120560477849</v>
       </c>
       <c r="E98">
-        <v>-0.1241911465674075</v>
+        <v>0.1641688376946427</v>
       </c>
       <c r="F98">
-        <v>-0.1360917250167429</v>
+        <v>-0.1963683741733724</v>
       </c>
       <c r="G98">
-        <v>0.192481182579736</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.07725439544168868</v>
+      </c>
+      <c r="H98">
+        <v>0.2674118603093391</v>
+      </c>
+      <c r="I98">
+        <v>-0.3159731202180652</v>
+      </c>
+      <c r="J98">
+        <v>-0.01031279646025837</v>
+      </c>
+      <c r="K98">
+        <v>0.1388797606822949</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.02659658958989594</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>-0.07016833820474724</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>0.008522332397128414</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>-0.3518376729153414</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>0.2796125449269563</v>
       </c>
       <c r="G99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>-0.6750148100975185</v>
+      </c>
+      <c r="H99">
+        <v>-0.02504257160222628</v>
+      </c>
+      <c r="I99">
+        <v>-0.1782537854872941</v>
+      </c>
+      <c r="J99">
+        <v>-0.4990615355712763</v>
+      </c>
+      <c r="K99">
+        <v>-0.0673860027135381</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,56 +4200,92 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>0.006594141202185957</v>
+        <v>0.01732921148697027</v>
       </c>
       <c r="C101">
-        <v>-0.07888226774748347</v>
+        <v>-0.08255818123157717</v>
       </c>
       <c r="D101">
-        <v>-0.04964697675465625</v>
+        <v>0.04870111203105953</v>
       </c>
       <c r="E101">
-        <v>0.00809383009192018</v>
+        <v>0.02472687070853291</v>
       </c>
       <c r="F101">
-        <v>-0.03620105951263767</v>
+        <v>0.04402591797431515</v>
       </c>
       <c r="G101">
-        <v>0.1182401192320825</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.02612024325744874</v>
+      </c>
+      <c r="H101">
+        <v>0.1562193658399943</v>
+      </c>
+      <c r="I101">
+        <v>0.2613332212837865</v>
+      </c>
+      <c r="J101">
+        <v>0.0009096613716649436</v>
+      </c>
+      <c r="K101">
+        <v>-0.007174761636983085</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102">
-        <v>0.003144363370085731</v>
+        <v>0.001595664302550242</v>
       </c>
       <c r="C102">
-        <v>-0.01753183056681269</v>
+        <v>-0.006875187704442455</v>
       </c>
       <c r="D102">
-        <v>0.0002174153637915504</v>
+        <v>-0.001846221023664982</v>
       </c>
       <c r="E102">
-        <v>-0.01640088787159058</v>
+        <v>0.004478455254191748</v>
       </c>
       <c r="F102">
-        <v>-0.01865148383837348</v>
+        <v>-0.002522008520833834</v>
       </c>
       <c r="G102">
-        <v>-0.01089514925827283</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.001118745903395991</v>
+      </c>
+      <c r="H102">
+        <v>-0.004657732170243642</v>
+      </c>
+      <c r="I102">
+        <v>0.008160526032741432</v>
+      </c>
+      <c r="J102">
+        <v>-0.0008749101076781155</v>
+      </c>
+      <c r="K102">
+        <v>-0.0140872483871902</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4305,22 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4338,18 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
